--- a/data/trans_orig/P36BPD13_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD13_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>357917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332018</v>
+        <v>332302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>374924</v>
+        <v>376443</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8776919646560917</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8141819323205637</v>
+        <v>0.814880249588618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9193972088010405</v>
+        <v>0.9231233106090411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -762,19 +762,19 @@
         <v>310229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>288546</v>
+        <v>291019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>325501</v>
+        <v>326202</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.865599309855473</v>
+        <v>0.8655993098554727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8050996957776158</v>
+        <v>0.8120002069294385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9082118678184986</v>
+        <v>0.9101671981851566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>331</v>
@@ -783,19 +783,19 @@
         <v>668147</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>636646</v>
+        <v>634045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>694508</v>
+        <v>691081</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.872035432384158</v>
+        <v>0.8720354323841579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8309220293192534</v>
+        <v>0.8275274965843904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9064416070307517</v>
+        <v>0.9019678515596482</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>49876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32869</v>
+        <v>31350</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75775</v>
+        <v>75491</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1223080353439085</v>
+        <v>0.1223080353439084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08060279119895961</v>
+        <v>0.07687668939095892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1858180676794362</v>
+        <v>0.1851197504113819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -833,19 +833,19 @@
         <v>48169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32897</v>
+        <v>32196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69852</v>
+        <v>67379</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1344006901445272</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09178813218150138</v>
+        <v>0.08983280181484345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1949003042223841</v>
+        <v>0.1879997930705614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -854,19 +854,19 @@
         <v>98045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71684</v>
+        <v>75111</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>129546</v>
+        <v>132147</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1279645676158421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0935583929692483</v>
+        <v>0.09803214844035195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.169077970680747</v>
+        <v>0.1724725034156096</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>389986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>365078</v>
+        <v>365338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411740</v>
+        <v>410042</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8198965814448828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7675291777142015</v>
+        <v>0.7680760574905355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8656319592648893</v>
+        <v>0.8620611984940347</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>409</v>
@@ -979,19 +979,19 @@
         <v>442756</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>427284</v>
+        <v>427611</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>455971</v>
+        <v>455198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8953946089818585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8641059356278757</v>
+        <v>0.8647679509106713</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9221198992581785</v>
+        <v>0.9205577703134837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>662</v>
@@ -1000,19 +1000,19 @@
         <v>832742</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>803154</v>
+        <v>803108</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>857568</v>
+        <v>856532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.858378220044185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8278796896751913</v>
+        <v>0.8278319853088429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8839681814352162</v>
+        <v>0.8829008020134318</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>85667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63913</v>
+        <v>65611</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110575</v>
+        <v>110315</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1801034185551173</v>
+        <v>0.1801034185551172</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1343680407351106</v>
+        <v>0.1379388015059653</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2324708222857984</v>
+        <v>0.2319239425094644</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1050,19 +1050,19 @@
         <v>51725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38510</v>
+        <v>39283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67197</v>
+        <v>66870</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1046053910181414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07788010074182153</v>
+        <v>0.07944222968651612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1358940643721244</v>
+        <v>0.1352320490893289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>94</v>
@@ -1071,19 +1071,19 @@
         <v>137392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>112566</v>
+        <v>113602</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>166980</v>
+        <v>167026</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1416217799558149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1160318185647836</v>
+        <v>0.1170991979865681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1721203103248087</v>
+        <v>0.1721680146911567</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>531997</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>510959</v>
+        <v>510870</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>549939</v>
+        <v>549656</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.861334404298755</v>
+        <v>0.8613344042987549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8272731019200188</v>
+        <v>0.8271282451867087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8903838824155788</v>
+        <v>0.889924322643399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>727</v>
@@ -1196,19 +1196,19 @@
         <v>528245</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>511279</v>
+        <v>512805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>542734</v>
+        <v>541567</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8534060578664614</v>
+        <v>0.8534060578664613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8259977773708208</v>
+        <v>0.8284622900905739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8768142978096856</v>
+        <v>0.8749288276549994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1201</v>
@@ -1217,19 +1217,19 @@
         <v>1060242</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1032826</v>
+        <v>1035646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1084102</v>
+        <v>1084060</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8573659305521498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.835196094491826</v>
+        <v>0.8374765943033005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8766601571768027</v>
+        <v>0.8766267541684762</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>85646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67704</v>
+        <v>67987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106684</v>
+        <v>106773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1386655957012451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1096161175844216</v>
+        <v>0.1100756773566013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1727268980799814</v>
+        <v>0.1728717548132922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -1267,19 +1267,19 @@
         <v>90739</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76250</v>
+        <v>77417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107705</v>
+        <v>106179</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1465939421335388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1231857021903144</v>
+        <v>0.1250711723450005</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1740022226291792</v>
+        <v>0.1715377099094262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>184</v>
@@ -1288,19 +1288,19 @@
         <v>176385</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>152525</v>
+        <v>152567</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203801</v>
+        <v>200981</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1426340694478502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1233398428231974</v>
+        <v>0.1233732458315238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1648039055081741</v>
+        <v>0.1625234056966997</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>593282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>573200</v>
+        <v>572515</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>612754</v>
+        <v>612730</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8524380403376396</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8235834874924984</v>
+        <v>0.8225995005923943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8804147868663228</v>
+        <v>0.8803812284799079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>996</v>
@@ -1413,19 +1413,19 @@
         <v>637428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>622397</v>
+        <v>622883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>651680</v>
+        <v>650347</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8749630081650578</v>
+        <v>0.8749630081650579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8543313594076913</v>
+        <v>0.8549982116455445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8945265107124538</v>
+        <v>0.8926957585777342</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1570</v>
@@ -1434,19 +1434,19 @@
         <v>1230710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1204161</v>
+        <v>1203936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1253555</v>
+        <v>1253109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8639577689256426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8453206554574507</v>
+        <v>0.8451626114207986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8799955859136781</v>
+        <v>0.8796820803749871</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>102701</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83229</v>
+        <v>83253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>122783</v>
+        <v>123468</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1475619596623606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1195852131336772</v>
+        <v>0.119618771520092</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1764165125075014</v>
+        <v>0.1774004994076057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1484,19 +1484,19 @@
         <v>91092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76840</v>
+        <v>78173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>106123</v>
+        <v>105637</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1250369918349422</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1054734892875462</v>
+        <v>0.1073042414222657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1456686405923087</v>
+        <v>0.1450017883544555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>219</v>
@@ -1505,19 +1505,19 @@
         <v>193792</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170947</v>
+        <v>171393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>220341</v>
+        <v>220566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1360422310743575</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1200044140863222</v>
+        <v>0.1203179196250129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.154679344542549</v>
+        <v>0.1548373885792014</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>487811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>467655</v>
+        <v>467051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>505842</v>
+        <v>505355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8068533902330638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7735137217421131</v>
+        <v>0.7725147150332253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8366771532586083</v>
+        <v>0.8358706462076695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>882</v>
@@ -1630,19 +1630,19 @@
         <v>529431</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>514409</v>
+        <v>515610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>541464</v>
+        <v>542647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8722114847015461</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8474629013873014</v>
+        <v>0.8494408533876244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8920339411979408</v>
+        <v>0.8939831452142687</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1425</v>
@@ -1651,19 +1651,19 @@
         <v>1017243</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>992273</v>
+        <v>992310</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1040124</v>
+        <v>1039449</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8395975388954252</v>
+        <v>0.8395975388954251</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8189878500916038</v>
+        <v>0.8190187725226842</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8584829719631308</v>
+        <v>0.8579256238930846</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>116774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98743</v>
+        <v>99230</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136930</v>
+        <v>137534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1931466097669362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1633228467413917</v>
+        <v>0.1641293537923305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.226486278257887</v>
+        <v>0.2274852849667746</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -1701,19 +1701,19 @@
         <v>77568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65535</v>
+        <v>64352</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92590</v>
+        <v>91389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1277885152984542</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1079660588020591</v>
+        <v>0.1060168547857312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1525370986126987</v>
+        <v>0.1505591466123756</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>232</v>
@@ -1722,19 +1722,19 @@
         <v>194341</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>171460</v>
+        <v>172135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>219311</v>
+        <v>219274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1604024611045748</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1415170280368689</v>
+        <v>0.1420743761069154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1810121499083962</v>
+        <v>0.1809812274773158</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>334910</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>321054</v>
+        <v>320691</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>347275</v>
+        <v>345572</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8330701752072605</v>
+        <v>0.8330701752072603</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7986036017336179</v>
+        <v>0.7977005469277803</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8638275892205466</v>
+        <v>0.8595901828213964</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>748</v>
@@ -1847,19 +1847,19 @@
         <v>393712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>383702</v>
+        <v>383350</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>402282</v>
+        <v>402661</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9005310855369786</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8776353884465146</v>
+        <v>0.8768303929342376</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.920131813039036</v>
+        <v>0.9210000690244308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1225</v>
@@ -1868,19 +1868,19 @@
         <v>728623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>712888</v>
+        <v>711842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>745304</v>
+        <v>744216</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.868214637850061</v>
+        <v>0.8682146378500613</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8494647896169519</v>
+        <v>0.8482181968447515</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8880912850660365</v>
+        <v>0.8867953958615392</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>67109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54744</v>
+        <v>56447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80965</v>
+        <v>81328</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1669298247927396</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1361724107794533</v>
+        <v>0.1404098171786033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.201396398266382</v>
+        <v>0.2022994530722196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1918,19 +1918,19 @@
         <v>43488</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34918</v>
+        <v>34539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53498</v>
+        <v>53850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09946891446302143</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07986818696096391</v>
+        <v>0.07899993097556916</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1223646115534854</v>
+        <v>0.1231696070657625</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>161</v>
@@ -1939,19 +1939,19 @@
         <v>110597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93916</v>
+        <v>95004</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>126332</v>
+        <v>127378</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1317853621499389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1119087149339637</v>
+        <v>0.1132046041384604</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.150535210383048</v>
+        <v>0.1517818031552484</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>272472</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>261019</v>
+        <v>261489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281046</v>
+        <v>281663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8851136734359154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8479106573670734</v>
+        <v>0.8494371850230853</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9129674708451833</v>
+        <v>0.9149730754830465</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>787</v>
@@ -2064,19 +2064,19 @@
         <v>409898</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>399161</v>
+        <v>398369</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>419496</v>
+        <v>419291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8900477570415591</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8667339690232113</v>
+        <v>0.8650130202996763</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9108889882303993</v>
+        <v>0.9104426449139759</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1199</v>
@@ -2085,19 +2085,19 @@
         <v>682370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>667642</v>
+        <v>666603</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>695838</v>
+        <v>694964</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8880709826741773</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8689038938880453</v>
+        <v>0.8675506961628858</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9055996299812883</v>
+        <v>0.9044619144700907</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>35366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26792</v>
+        <v>26175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46819</v>
+        <v>46349</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1148863265640847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0870325291548167</v>
+        <v>0.0850269245169535</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1520893426329265</v>
+        <v>0.1505628149769148</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>87</v>
@@ -2135,19 +2135,19 @@
         <v>50637</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>41039</v>
+        <v>41244</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61374</v>
+        <v>62166</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1099522429584408</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08911101176960033</v>
+        <v>0.08955735508602425</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1332660309767883</v>
+        <v>0.1349869797003238</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>130</v>
@@ -2156,19 +2156,19 @@
         <v>86003</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>72535</v>
+        <v>73409</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100731</v>
+        <v>101770</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1119290173258227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09440037001871179</v>
+        <v>0.09553808552990964</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1310961061119546</v>
+        <v>0.1324493038371142</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>2968376</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2914113</v>
+        <v>2922556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3009598</v>
+        <v>3015594</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.845326425780371</v>
+        <v>0.8453264257803711</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.829873321678135</v>
+        <v>0.8322776823095459</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8570653298676769</v>
+        <v>0.8587730435523189</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4728</v>
@@ -2281,19 +2281,19 @@
         <v>3251699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3215438</v>
+        <v>3212284</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3288380</v>
+        <v>3284465</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8776239074018507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8678371637941322</v>
+        <v>0.8669858608423148</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8875238759770414</v>
+        <v>0.8864671590060592</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7613</v>
@@ -2302,19 +2302,19 @@
         <v>6220076</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6155744</v>
+        <v>6159507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6280949</v>
+        <v>6279457</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8619083928919502</v>
+        <v>0.8619083928919503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8529940363236866</v>
+        <v>0.8535154489204244</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8703435441922889</v>
+        <v>0.8701367789118254</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>543139</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>501917</v>
+        <v>495921</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>597402</v>
+        <v>588959</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1546735742196289</v>
+        <v>0.154673574219629</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1429346701323231</v>
+        <v>0.1412269564476809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1701266783218651</v>
+        <v>0.1677223176904542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>598</v>
@@ -2352,19 +2352,19 @@
         <v>453418</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>416737</v>
+        <v>420652</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>489679</v>
+        <v>492833</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1223760925981493</v>
+        <v>0.1223760925981494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1124761240229586</v>
+        <v>0.1135328409939409</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1321628362058677</v>
+        <v>0.1330141391576853</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1066</v>
@@ -2373,19 +2373,19 @@
         <v>996556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>935683</v>
+        <v>937175</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1060888</v>
+        <v>1057125</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1380916071080496</v>
+        <v>0.1380916071080497</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1296564558077111</v>
+        <v>0.1298632210881745</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1470059636763136</v>
+        <v>0.1464845510795754</v>
       </c>
     </row>
     <row r="27">
